--- a/output/likelihood_formulas_M3.xlsx
+++ b/output/likelihood_formulas_M3.xlsx
@@ -501,31 +501,31 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.89</v>
+        <v>1.027</v>
       </c>
       <c r="E2">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="F2">
-        <v>1.510083333333333</v>
+        <v>1.23625</v>
       </c>
       <c r="G2">
-        <v>0.253463701388889</v>
+        <v>0.09761414583333339</v>
       </c>
       <c r="H2">
-        <v>4.425</v>
+        <v>3.183333333333334</v>
       </c>
       <c r="I2">
-        <v>1.028125</v>
+        <v>1.338055555555555</v>
       </c>
       <c r="J2">
-        <v>0.5960684946711681</v>
+        <v>1.020353483153802</v>
       </c>
       <c r="K2">
-        <v>0.0648982532404713</v>
+        <v>0.06465291590195688</v>
       </c>
       <c r="L2">
-        <v>0.01934190205791799</v>
+        <v>0.03298441396830576</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -539,31 +539,31 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.302</v>
+        <v>1.239</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>1.510083333333333</v>
+        <v>1.23625</v>
       </c>
       <c r="G3">
-        <v>0.253463701388889</v>
+        <v>0.09761414583333339</v>
       </c>
       <c r="H3">
-        <v>4.425</v>
+        <v>3.183333333333334</v>
       </c>
       <c r="I3">
-        <v>1.028125</v>
+        <v>1.338055555555555</v>
       </c>
       <c r="J3">
-        <v>0.2299725999110499</v>
+        <v>1.27684112895035</v>
       </c>
       <c r="K3">
-        <v>0.3350092337022262</v>
+        <v>0.2688050773771029</v>
       </c>
       <c r="L3">
-        <v>0.03852147223435474</v>
+        <v>0.1716106892328831</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -577,31 +577,31 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.1865</v>
+        <v>1.166</v>
       </c>
       <c r="E4">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="F4">
-        <v>1.510083333333333</v>
+        <v>1.23625</v>
       </c>
       <c r="G4">
-        <v>0.253463701388889</v>
+        <v>0.09761414583333339</v>
       </c>
       <c r="H4">
-        <v>4.425</v>
+        <v>3.183333333333334</v>
       </c>
       <c r="I4">
-        <v>1.028125</v>
+        <v>1.338055555555555</v>
       </c>
       <c r="J4">
-        <v>0.6445377836088926</v>
+        <v>1.245017365128281</v>
       </c>
       <c r="K4">
-        <v>0.387631346965481</v>
+        <v>0.2896640519617951</v>
       </c>
       <c r="L4">
-        <v>0.1249215246152304</v>
+        <v>0.1803183873729277</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -615,31 +615,31 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.742</v>
+        <v>0.9089999999999999</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>1.510083333333333</v>
+        <v>1.23625</v>
       </c>
       <c r="G5">
-        <v>0.253463701388889</v>
+        <v>0.09761414583333339</v>
       </c>
       <c r="H5">
-        <v>4.425</v>
+        <v>3.183333333333334</v>
       </c>
       <c r="I5">
-        <v>1.028125</v>
+        <v>1.338055555555555</v>
       </c>
       <c r="J5">
-        <v>0.7126449980383891</v>
+        <v>0.7377704624374438</v>
       </c>
       <c r="K5">
-        <v>0.360361041881427</v>
+        <v>0.3405794120351475</v>
       </c>
       <c r="L5">
-        <v>0.1284047469923507</v>
+        <v>0.1256347151569218</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -653,31 +653,31 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.031</v>
+        <v>1.1865</v>
       </c>
       <c r="E6">
-        <v>5.3</v>
+        <v>2.5</v>
       </c>
       <c r="F6">
-        <v>1.510083333333333</v>
+        <v>1.23625</v>
       </c>
       <c r="G6">
-        <v>0.253463701388889</v>
+        <v>0.09761414583333339</v>
       </c>
       <c r="H6">
-        <v>4.425</v>
+        <v>3.183333333333334</v>
       </c>
       <c r="I6">
-        <v>1.028125</v>
+        <v>1.338055555555555</v>
       </c>
       <c r="J6">
-        <v>0.5038685471710387</v>
+        <v>1.260804627539021</v>
       </c>
       <c r="K6">
-        <v>0.271132584451828</v>
+        <v>0.2896640519617951</v>
       </c>
       <c r="L6">
-        <v>0.06830759070923577</v>
+        <v>0.1826048885725673</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -691,31 +691,31 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9089999999999999</v>
+        <v>1.89</v>
       </c>
       <c r="E7">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="F7">
-        <v>1.510083333333333</v>
+        <v>1.23625</v>
       </c>
       <c r="G7">
-        <v>0.253463701388889</v>
+        <v>0.09761414583333339</v>
       </c>
       <c r="H7">
-        <v>4.425</v>
+        <v>3.183333333333334</v>
       </c>
       <c r="I7">
-        <v>1.028125</v>
+        <v>1.338055555555555</v>
       </c>
       <c r="J7">
-        <v>0.3885245771586974</v>
+        <v>0.143023266457987</v>
       </c>
       <c r="K7">
-        <v>0.2242905454469329</v>
+        <v>0.1687024282500931</v>
       </c>
       <c r="L7">
-        <v>0.04357119466523161</v>
+        <v>0.01206418617386125</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -729,31 +729,31 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>2.446</v>
+        <v>2.171</v>
       </c>
       <c r="E8">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>1.511555555555556</v>
+        <v>1.694111111111111</v>
       </c>
       <c r="G8">
-        <v>0.2361455246913581</v>
+        <v>0.2561913765432099</v>
       </c>
       <c r="H8">
-        <v>2.811111111111111</v>
+        <v>3.638888888888889</v>
       </c>
       <c r="I8">
-        <v>0.7648765432098767</v>
+        <v>1.517098765432099</v>
       </c>
       <c r="J8">
-        <v>0.1292358564208007</v>
+        <v>0.5056669539171873</v>
       </c>
       <c r="K8">
-        <v>0.02632303206314881</v>
+        <v>0.1758859568782206</v>
       </c>
       <c r="L8">
-        <v>0.001700939796136617</v>
+        <v>0.04446985802570978</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -767,31 +767,31 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1.07</v>
+        <v>1.8415</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="F9">
-        <v>1.511555555555556</v>
+        <v>1.694111111111111</v>
       </c>
       <c r="G9">
-        <v>0.2361455246913581</v>
+        <v>0.2561913765432099</v>
       </c>
       <c r="H9">
-        <v>2.811111111111111</v>
+        <v>3.638888888888889</v>
       </c>
       <c r="I9">
-        <v>0.7648765432098767</v>
+        <v>1.517098765432099</v>
       </c>
       <c r="J9">
-        <v>0.5432936760891717</v>
+        <v>0.7554661938984805</v>
       </c>
       <c r="K9">
-        <v>0.4456410403548585</v>
+        <v>0.2705568796570144</v>
       </c>
       <c r="L9">
-        <v>0.121056979515297</v>
+        <v>0.1021982880537669</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -805,31 +805,31 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>2.171</v>
+        <v>1.031</v>
       </c>
       <c r="E10">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="F10">
-        <v>1.511555555555556</v>
+        <v>1.694111111111111</v>
       </c>
       <c r="G10">
-        <v>0.2361455246913581</v>
+        <v>0.2561913765432099</v>
       </c>
       <c r="H10">
-        <v>2.811111111111111</v>
+        <v>3.638888888888889</v>
       </c>
       <c r="I10">
-        <v>0.7648765432098767</v>
+        <v>1.517098765432099</v>
       </c>
       <c r="J10">
-        <v>0.3269181042678244</v>
+        <v>0.3341374974572674</v>
       </c>
       <c r="K10">
-        <v>0.4281893208006766</v>
+        <v>0.2769980447648336</v>
       </c>
       <c r="L10">
-        <v>0.06999142051194225</v>
+        <v>0.04627771673913881</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -843,31 +843,31 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1.027</v>
+        <v>1.742</v>
       </c>
       <c r="E11">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>1.511555555555556</v>
+        <v>1.694111111111111</v>
       </c>
       <c r="G11">
-        <v>0.2361455246913581</v>
+        <v>0.2561913765432099</v>
       </c>
       <c r="H11">
-        <v>2.811111111111111</v>
+        <v>3.638888888888889</v>
       </c>
       <c r="I11">
-        <v>0.7648765432098767</v>
+        <v>1.517098765432099</v>
       </c>
       <c r="J11">
-        <v>0.4993622153895869</v>
+        <v>0.7846644510953596</v>
       </c>
       <c r="K11">
-        <v>0.203527229076902</v>
+        <v>0.2831256128309231</v>
       </c>
       <c r="L11">
-        <v>0.05081690400197286</v>
+        <v>0.1110793017915068</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -881,31 +881,31 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1.2415</v>
+        <v>2.302</v>
       </c>
       <c r="E12">
-        <v>2.95</v>
+        <v>1.7</v>
       </c>
       <c r="F12">
-        <v>1.511555555555556</v>
+        <v>1.694111111111111</v>
       </c>
       <c r="G12">
-        <v>0.2361455246913581</v>
+        <v>0.2561913765432099</v>
       </c>
       <c r="H12">
-        <v>2.811111111111111</v>
+        <v>3.638888888888889</v>
       </c>
       <c r="I12">
-        <v>0.7648765432098767</v>
+        <v>1.517098765432099</v>
       </c>
       <c r="J12">
-        <v>0.7034893675665789</v>
+        <v>0.3831915621817934</v>
       </c>
       <c r="K12">
-        <v>0.4504410467830278</v>
+        <v>0.0938261323161729</v>
       </c>
       <c r="L12">
-        <v>0.15844024356371</v>
+        <v>0.01797669110785497</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -919,31 +919,31 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1.166</v>
+        <v>1.2415</v>
       </c>
       <c r="E13">
-        <v>1.8</v>
+        <v>4.9</v>
       </c>
       <c r="F13">
-        <v>1.511555555555556</v>
+        <v>1.694111111111111</v>
       </c>
       <c r="G13">
-        <v>0.2361455246913581</v>
+        <v>0.2561913765432099</v>
       </c>
       <c r="H13">
-        <v>2.811111111111111</v>
+        <v>3.638888888888889</v>
       </c>
       <c r="I13">
-        <v>0.7648765432098767</v>
+        <v>1.517098765432099</v>
       </c>
       <c r="J13">
-        <v>0.63755576865018</v>
+        <v>0.5284350661159578</v>
       </c>
       <c r="K13">
-        <v>0.2338148406682591</v>
+        <v>0.1917625863465881</v>
       </c>
       <c r="L13">
-        <v>0.07453500023203567</v>
+        <v>0.05066703749731317</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -957,31 +957,31 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1.8415</v>
+        <v>1.07</v>
       </c>
       <c r="E14">
-        <v>2.9</v>
+        <v>4.25</v>
       </c>
       <c r="F14">
-        <v>1.511555555555556</v>
+        <v>1.694111111111111</v>
       </c>
       <c r="G14">
-        <v>0.2361455246913581</v>
+        <v>0.2561913765432099</v>
       </c>
       <c r="H14">
-        <v>2.811111111111111</v>
+        <v>3.638888888888889</v>
       </c>
       <c r="I14">
-        <v>0.7648765432098767</v>
+        <v>1.517098765432099</v>
       </c>
       <c r="J14">
-        <v>0.6519512142755522</v>
+        <v>0.3685327064981622</v>
       </c>
       <c r="K14">
-        <v>0.4538070585020261</v>
+        <v>0.2863842059988284</v>
       </c>
       <c r="L14">
-        <v>0.1479300314186063</v>
+        <v>0.05277097326753772</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -995,31 +995,31 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1.239</v>
+        <v>2.446</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="F15">
-        <v>1.511555555555556</v>
+        <v>1.694111111111111</v>
       </c>
       <c r="G15">
-        <v>0.2361455246913581</v>
+        <v>0.2561913765432099</v>
       </c>
       <c r="H15">
-        <v>2.811111111111111</v>
+        <v>3.638888888888889</v>
       </c>
       <c r="I15">
-        <v>0.7648765432098767</v>
+        <v>1.517098765432099</v>
       </c>
       <c r="J15">
-        <v>0.7014716844176307</v>
+        <v>0.2614866445343001</v>
       </c>
       <c r="K15">
-        <v>0.4456410403548585</v>
+        <v>0.2191255786365801</v>
       </c>
       <c r="L15">
-        <v>0.156302285611674</v>
+        <v>0.02864920614465813</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1036,28 +1036,28 @@
         <v>1.402</v>
       </c>
       <c r="E16">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="F16">
-        <v>1.511555555555556</v>
+        <v>1.694111111111111</v>
       </c>
       <c r="G16">
-        <v>0.2361455246913581</v>
+        <v>0.2561913765432099</v>
       </c>
       <c r="H16">
-        <v>2.811111111111111</v>
+        <v>3.638888888888889</v>
       </c>
       <c r="I16">
-        <v>0.7648765432098767</v>
+        <v>1.517098765432099</v>
       </c>
       <c r="J16">
-        <v>0.8003563595122321</v>
+        <v>0.6672724976589723</v>
       </c>
       <c r="K16">
-        <v>0.4362731452185427</v>
+        <v>0.1034255012828138</v>
       </c>
       <c r="L16">
-        <v>0.1745869931300321</v>
+        <v>0.0345064962813072</v>
       </c>
     </row>
   </sheetData>

--- a/output/likelihood_formulas_M3.xlsx
+++ b/output/likelihood_formulas_M3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Individual</t>
   </si>
@@ -52,43 +52,52 @@
     <t>BXD1</t>
   </si>
   <si>
+    <t>BXD5</t>
+  </si>
+  <si>
+    <t>BXD31</t>
+  </si>
+  <si>
+    <t>BXD23</t>
+  </si>
+  <si>
+    <t>BXD2</t>
+  </si>
+  <si>
+    <t>BXD21</t>
+  </si>
+  <si>
     <t>BXD14</t>
   </si>
   <si>
-    <t>BXD2</t>
-  </si>
-  <si>
-    <t>BXD21</t>
-  </si>
-  <si>
-    <t>BXD23</t>
-  </si>
-  <si>
-    <t>BXD31</t>
+    <t>BXD13</t>
+  </si>
+  <si>
+    <t>BXD19</t>
+  </si>
+  <si>
+    <t>BXD15</t>
+  </si>
+  <si>
+    <t>BXD8</t>
+  </si>
+  <si>
+    <t>BXD24</t>
+  </si>
+  <si>
+    <t>BXD28</t>
+  </si>
+  <si>
+    <t>BXD32</t>
   </si>
   <si>
     <t>BXD11</t>
   </si>
   <si>
-    <t>BXD15</t>
+    <t>BXD6</t>
   </si>
   <si>
     <t>BXD16</t>
-  </si>
-  <si>
-    <t>BXD24</t>
-  </si>
-  <si>
-    <t>BXD28</t>
-  </si>
-  <si>
-    <t>BXD32</t>
-  </si>
-  <si>
-    <t>BXD6</t>
-  </si>
-  <si>
-    <t>BXD8</t>
   </si>
   <si>
     <t>BXD9</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,36 +510,36 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.027</v>
+        <v>3.1855</v>
       </c>
       <c r="E2">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.23625</v>
+        <v>3.010875</v>
       </c>
       <c r="G2">
-        <v>0.09761414583333339</v>
+        <v>0.202774796875</v>
       </c>
       <c r="H2">
-        <v>3.183333333333334</v>
+        <v>38.875</v>
       </c>
       <c r="I2">
-        <v>1.338055555555555</v>
+        <v>1245.109375</v>
       </c>
       <c r="J2">
-        <v>1.020353483153802</v>
+        <v>0.8217653323779117</v>
       </c>
       <c r="K2">
-        <v>0.06465291590195688</v>
+        <v>0.006162279433048035</v>
       </c>
       <c r="L2">
-        <v>0.03298441396830576</v>
+        <v>0.002531973803252144</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -539,36 +548,36 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.239</v>
+        <v>3.0645</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="F3">
-        <v>1.23625</v>
+        <v>3.010875</v>
       </c>
       <c r="G3">
-        <v>0.09761414583333339</v>
+        <v>0.202774796875</v>
       </c>
       <c r="H3">
-        <v>3.183333333333334</v>
+        <v>38.875</v>
       </c>
       <c r="I3">
-        <v>1.338055555555555</v>
+        <v>1245.109375</v>
       </c>
       <c r="J3">
-        <v>1.27684112895035</v>
+        <v>0.8796777666901296</v>
       </c>
       <c r="K3">
-        <v>0.2688050773771029</v>
+        <v>0.005173048256839504</v>
       </c>
       <c r="L3">
-        <v>0.1716106892328831</v>
+        <v>0.002275307768778421</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -577,36 +586,36 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.166</v>
+        <v>2.931</v>
       </c>
       <c r="E4">
-        <v>2.5</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>1.23625</v>
+        <v>3.010875</v>
       </c>
       <c r="G4">
-        <v>0.09761414583333339</v>
+        <v>0.202774796875</v>
       </c>
       <c r="H4">
-        <v>3.183333333333334</v>
+        <v>38.875</v>
       </c>
       <c r="I4">
-        <v>1.338055555555555</v>
+        <v>1245.109375</v>
       </c>
       <c r="J4">
-        <v>1.245017365128281</v>
+        <v>0.8721091730414935</v>
       </c>
       <c r="K4">
-        <v>0.2896640519617951</v>
+        <v>0.00979881462615984</v>
       </c>
       <c r="L4">
-        <v>0.1803183873729277</v>
+        <v>0.004272818060203575</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -615,36 +624,36 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9089999999999999</v>
+        <v>2.6615</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F5">
-        <v>1.23625</v>
+        <v>3.010875</v>
       </c>
       <c r="G5">
-        <v>0.09761414583333339</v>
+        <v>0.202774796875</v>
       </c>
       <c r="H5">
-        <v>3.183333333333334</v>
+        <v>38.875</v>
       </c>
       <c r="I5">
-        <v>1.338055555555555</v>
+        <v>1245.109375</v>
       </c>
       <c r="J5">
-        <v>0.7377704624374438</v>
+        <v>0.6556748273549828</v>
       </c>
       <c r="K5">
-        <v>0.3405794120351475</v>
+        <v>0.00979881462615984</v>
       </c>
       <c r="L5">
-        <v>0.1256347151569218</v>
+        <v>0.003212418044145417</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -653,36 +662,36 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.1865</v>
+        <v>3.2065</v>
       </c>
       <c r="E6">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>1.23625</v>
+        <v>3.010875</v>
       </c>
       <c r="G6">
-        <v>0.09761414583333339</v>
+        <v>0.202774796875</v>
       </c>
       <c r="H6">
-        <v>3.183333333333334</v>
+        <v>38.875</v>
       </c>
       <c r="I6">
-        <v>1.338055555555555</v>
+        <v>1245.109375</v>
       </c>
       <c r="J6">
-        <v>1.260804627539021</v>
+        <v>0.8061604074726</v>
       </c>
       <c r="K6">
-        <v>0.2896640519617951</v>
+        <v>0.008089049222233136</v>
       </c>
       <c r="L6">
-        <v>0.1826048885725673</v>
+        <v>0.003260535608530691</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -691,112 +700,112 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.89</v>
+        <v>2.374</v>
       </c>
       <c r="E7">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>1.23625</v>
+        <v>3.010875</v>
       </c>
       <c r="G7">
-        <v>0.09761414583333339</v>
+        <v>0.202774796875</v>
       </c>
       <c r="H7">
-        <v>3.183333333333334</v>
+        <v>38.875</v>
       </c>
       <c r="I7">
-        <v>1.338055555555555</v>
+        <v>1245.109375</v>
       </c>
       <c r="J7">
-        <v>0.143023266457987</v>
+        <v>0.3258698341765872</v>
       </c>
       <c r="K7">
-        <v>0.1687024282500931</v>
+        <v>0.008089049222233136</v>
       </c>
       <c r="L7">
-        <v>0.01206418617386125</v>
+        <v>0.001317988564347682</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>2.171</v>
+        <v>2.6955</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="F8">
-        <v>1.694111111111111</v>
+        <v>3.010875</v>
       </c>
       <c r="G8">
-        <v>0.2561913765432099</v>
+        <v>0.202774796875</v>
       </c>
       <c r="H8">
-        <v>3.638888888888889</v>
+        <v>38.875</v>
       </c>
       <c r="I8">
-        <v>1.517098765432099</v>
+        <v>1245.109375</v>
       </c>
       <c r="J8">
-        <v>0.5056669539171873</v>
+        <v>0.6932533531413017</v>
       </c>
       <c r="K8">
-        <v>0.1758859568782206</v>
+        <v>0.004122144904925831</v>
       </c>
       <c r="L8">
-        <v>0.04446985802570978</v>
+        <v>0.001428845388737082</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1.8415</v>
+        <v>3.9685</v>
       </c>
       <c r="E9">
-        <v>2.9</v>
+        <v>79</v>
       </c>
       <c r="F9">
-        <v>1.694111111111111</v>
+        <v>3.010875</v>
       </c>
       <c r="G9">
-        <v>0.2561913765432099</v>
+        <v>0.202774796875</v>
       </c>
       <c r="H9">
-        <v>3.638888888888889</v>
+        <v>38.875</v>
       </c>
       <c r="I9">
-        <v>1.517098765432099</v>
+        <v>1245.109375</v>
       </c>
       <c r="J9">
-        <v>0.7554661938984805</v>
+        <v>0.09233328750545597</v>
       </c>
       <c r="K9">
-        <v>0.2705568796570144</v>
+        <v>0.005922695085047902</v>
       </c>
       <c r="L9">
-        <v>0.1021982880537669</v>
+        <v>0.0002734309540474395</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -805,36 +814,36 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>1.031</v>
+        <v>2.905</v>
       </c>
       <c r="E10">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.694111111111111</v>
+        <v>3.239100000000001</v>
       </c>
       <c r="G10">
-        <v>0.2561913765432099</v>
+        <v>0.22243699</v>
       </c>
       <c r="H10">
-        <v>3.638888888888889</v>
+        <v>45.3</v>
       </c>
       <c r="I10">
-        <v>1.517098765432099</v>
+        <v>1960.41</v>
       </c>
       <c r="J10">
-        <v>0.3341374974572674</v>
+        <v>0.6581702389148893</v>
       </c>
       <c r="K10">
-        <v>0.2769980447648336</v>
+        <v>0.005338685304373844</v>
       </c>
       <c r="L10">
-        <v>0.04627771673913881</v>
+        <v>0.001756881891135571</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -843,36 +852,36 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1.742</v>
+        <v>3.3835</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F11">
-        <v>1.694111111111111</v>
+        <v>3.239100000000001</v>
       </c>
       <c r="G11">
-        <v>0.2561913765432099</v>
+        <v>0.22243699</v>
       </c>
       <c r="H11">
-        <v>3.638888888888889</v>
+        <v>45.3</v>
       </c>
       <c r="I11">
-        <v>1.517098765432099</v>
+        <v>1960.41</v>
       </c>
       <c r="J11">
-        <v>0.7846644510953596</v>
+        <v>0.8071440783008531</v>
       </c>
       <c r="K11">
-        <v>0.2831256128309231</v>
+        <v>0.004200626402036855</v>
       </c>
       <c r="L11">
-        <v>0.1110793017915068</v>
+        <v>0.001695255362779133</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -881,36 +890,36 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>2.302</v>
+        <v>3.353</v>
       </c>
       <c r="E12">
-        <v>1.7</v>
+        <v>100</v>
       </c>
       <c r="F12">
-        <v>1.694111111111111</v>
+        <v>3.239100000000001</v>
       </c>
       <c r="G12">
-        <v>0.2561913765432099</v>
+        <v>0.22243699</v>
       </c>
       <c r="H12">
-        <v>3.638888888888889</v>
+        <v>45.3</v>
       </c>
       <c r="I12">
-        <v>1.517098765432099</v>
+        <v>1960.41</v>
       </c>
       <c r="J12">
-        <v>0.3831915621817934</v>
+        <v>0.8215648791788004</v>
       </c>
       <c r="K12">
-        <v>0.0938261323161729</v>
+        <v>0.004200626402036855</v>
       </c>
       <c r="L12">
-        <v>0.01797669110785497</v>
+        <v>0.001725543561232344</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
@@ -919,36 +928,36 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1.2415</v>
+        <v>2.995</v>
       </c>
       <c r="E13">
-        <v>4.9</v>
+        <v>100</v>
       </c>
       <c r="F13">
-        <v>1.694111111111111</v>
+        <v>3.239100000000001</v>
       </c>
       <c r="G13">
-        <v>0.2561913765432099</v>
+        <v>0.22243699</v>
       </c>
       <c r="H13">
-        <v>3.638888888888889</v>
+        <v>45.3</v>
       </c>
       <c r="I13">
-        <v>1.517098765432099</v>
+        <v>1960.41</v>
       </c>
       <c r="J13">
-        <v>0.5284350661159578</v>
+        <v>0.739841571720248</v>
       </c>
       <c r="K13">
-        <v>0.1917625863465881</v>
+        <v>0.004200626402036855</v>
       </c>
       <c r="L13">
-        <v>0.05066703749731317</v>
+        <v>0.001553899019746259</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -957,36 +966,36 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1.07</v>
+        <v>4.2805</v>
       </c>
       <c r="E14">
-        <v>4.25</v>
+        <v>66</v>
       </c>
       <c r="F14">
-        <v>1.694111111111111</v>
+        <v>3.239100000000001</v>
       </c>
       <c r="G14">
-        <v>0.2561913765432099</v>
+        <v>0.22243699</v>
       </c>
       <c r="H14">
-        <v>3.638888888888889</v>
+        <v>45.3</v>
       </c>
       <c r="I14">
-        <v>1.517098765432099</v>
+        <v>1960.41</v>
       </c>
       <c r="J14">
-        <v>0.3685327064981622</v>
+        <v>0.07388959830514233</v>
       </c>
       <c r="K14">
-        <v>0.2863842059988284</v>
+        <v>0.008077451998695988</v>
       </c>
       <c r="L14">
-        <v>0.05277097326753772</v>
+        <v>0.0002984198417563578</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -995,36 +1004,36 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>2.446</v>
+        <v>3.072</v>
       </c>
       <c r="E15">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.694111111111111</v>
+        <v>3.239100000000001</v>
       </c>
       <c r="G15">
-        <v>0.2561913765432099</v>
+        <v>0.22243699</v>
       </c>
       <c r="H15">
-        <v>3.638888888888889</v>
+        <v>45.3</v>
       </c>
       <c r="I15">
-        <v>1.517098765432099</v>
+        <v>1960.41</v>
       </c>
       <c r="J15">
-        <v>0.2614866445343001</v>
+        <v>0.7944163442429553</v>
       </c>
       <c r="K15">
-        <v>0.2191255786365801</v>
+        <v>0.005338685304373844</v>
       </c>
       <c r="L15">
-        <v>0.02864920614465813</v>
+        <v>0.002120569431282129</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1033,31 +1042,145 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1.402</v>
+        <v>3.607</v>
       </c>
       <c r="E16">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="F16">
-        <v>1.694111111111111</v>
+        <v>3.239100000000001</v>
       </c>
       <c r="G16">
-        <v>0.2561913765432099</v>
+        <v>0.22243699</v>
       </c>
       <c r="H16">
-        <v>3.638888888888889</v>
+        <v>45.3</v>
       </c>
       <c r="I16">
-        <v>1.517098765432099</v>
+        <v>1960.41</v>
       </c>
       <c r="J16">
-        <v>0.6672724976589723</v>
+        <v>0.623986083495514</v>
       </c>
       <c r="K16">
-        <v>0.1034255012828138</v>
+        <v>0.006790613889094571</v>
       </c>
       <c r="L16">
-        <v>0.0345064962813072</v>
+        <v>0.002118624282593181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>3.387</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3.239100000000001</v>
+      </c>
+      <c r="G17">
+        <v>0.22243699</v>
+      </c>
+      <c r="H17">
+        <v>45.3</v>
+      </c>
+      <c r="I17">
+        <v>1960.41</v>
+      </c>
+      <c r="J17">
+        <v>0.805290070084263</v>
+      </c>
+      <c r="K17">
+        <v>0.005338685304373844</v>
+      </c>
+      <c r="L17">
+        <v>0.002149595131458519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2.4065</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>3.239100000000001</v>
+      </c>
+      <c r="G18">
+        <v>0.22243699</v>
+      </c>
+      <c r="H18">
+        <v>45.3</v>
+      </c>
+      <c r="I18">
+        <v>1960.41</v>
+      </c>
+      <c r="J18">
+        <v>0.1780611826389548</v>
+      </c>
+      <c r="K18">
+        <v>0.005338685304373844</v>
+      </c>
+      <c r="L18">
+        <v>0.0004753063095170074</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3.0015</v>
+      </c>
+      <c r="E19">
+        <v>75</v>
+      </c>
+      <c r="F19">
+        <v>3.239100000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.22243699</v>
+      </c>
+      <c r="H19">
+        <v>45.3</v>
+      </c>
+      <c r="I19">
+        <v>1960.41</v>
+      </c>
+      <c r="J19">
+        <v>0.7450669883149073</v>
+      </c>
+      <c r="K19">
+        <v>0.007195000363549942</v>
+      </c>
+      <c r="L19">
+        <v>0.002680378625897409</v>
       </c>
     </row>
   </sheetData>

--- a/output/likelihood_formulas_M3.xlsx
+++ b/output/likelihood_formulas_M3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Individual</t>
   </si>
@@ -52,55 +52,22 @@
     <t>BXD1</t>
   </si>
   <si>
-    <t>BXD5</t>
+    <t>BXD14</t>
   </si>
   <si>
     <t>BXD31</t>
   </si>
   <si>
-    <t>BXD23</t>
-  </si>
-  <si>
-    <t>BXD2</t>
-  </si>
-  <si>
-    <t>BXD21</t>
-  </si>
-  <si>
-    <t>BXD14</t>
-  </si>
-  <si>
-    <t>BXD13</t>
-  </si>
-  <si>
-    <t>BXD19</t>
-  </si>
-  <si>
-    <t>BXD15</t>
-  </si>
-  <si>
-    <t>BXD8</t>
+    <t>BXD11</t>
   </si>
   <si>
     <t>BXD24</t>
   </si>
   <si>
-    <t>BXD28</t>
+    <t>BXD27</t>
   </si>
   <si>
     <t>BXD32</t>
-  </si>
-  <si>
-    <t>BXD11</t>
-  </si>
-  <si>
-    <t>BXD6</t>
-  </si>
-  <si>
-    <t>BXD16</t>
-  </si>
-  <si>
-    <t>BXD9</t>
   </si>
 </sst>
 </file>
@@ -458,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,36 +477,36 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.1855</v>
+        <v>11.875</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>3.010875</v>
+        <v>11.34783333333333</v>
       </c>
       <c r="G2">
-        <v>0.202774796875</v>
+        <v>0.2705243888888886</v>
       </c>
       <c r="H2">
-        <v>38.875</v>
+        <v>29.66666666666667</v>
       </c>
       <c r="I2">
-        <v>1245.109375</v>
+        <v>1233.555555555555</v>
       </c>
       <c r="J2">
-        <v>0.8217653323779117</v>
+        <v>0.4589184462726172</v>
       </c>
       <c r="K2">
-        <v>0.006162279433048035</v>
+        <v>0.009710572151444741</v>
       </c>
       <c r="L2">
-        <v>0.002531973803252144</v>
+        <v>0.002228180342079583</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -548,36 +515,36 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.0645</v>
+        <v>11.5285</v>
       </c>
       <c r="E3">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F3">
-        <v>3.010875</v>
+        <v>11.34783333333333</v>
       </c>
       <c r="G3">
-        <v>0.202774796875</v>
+        <v>0.2705243888888886</v>
       </c>
       <c r="H3">
-        <v>38.875</v>
+        <v>29.66666666666667</v>
       </c>
       <c r="I3">
-        <v>1245.109375</v>
+        <v>1233.555555555555</v>
       </c>
       <c r="J3">
-        <v>0.8796777666901296</v>
+        <v>0.7221155427760267</v>
       </c>
       <c r="K3">
-        <v>0.005173048256839504</v>
+        <v>0.004235493447753921</v>
       </c>
       <c r="L3">
-        <v>0.002275307768778421</v>
+        <v>0.001529257824974564</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -586,69 +553,69 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.931</v>
+        <v>10.64</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3.010875</v>
+        <v>11.34783333333333</v>
       </c>
       <c r="G4">
-        <v>0.202774796875</v>
+        <v>0.2705243888888886</v>
       </c>
       <c r="H4">
-        <v>38.875</v>
+        <v>29.66666666666667</v>
       </c>
       <c r="I4">
-        <v>1245.109375</v>
+        <v>1233.555555555555</v>
       </c>
       <c r="J4">
-        <v>0.8721091730414935</v>
+        <v>0.3038341812428824</v>
       </c>
       <c r="K4">
-        <v>0.00979881462615984</v>
+        <v>0.007950630502803353</v>
       </c>
       <c r="L4">
-        <v>0.004272818060203575</v>
+        <v>0.001207836654591972</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>2.6615</v>
+        <v>11.6485</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>3.010875</v>
+        <v>11.188875</v>
       </c>
       <c r="G5">
-        <v>0.202774796875</v>
+        <v>0.1972095468749998</v>
       </c>
       <c r="H5">
-        <v>38.875</v>
+        <v>48</v>
       </c>
       <c r="I5">
-        <v>1245.109375</v>
+        <v>1448.5</v>
       </c>
       <c r="J5">
-        <v>0.6556748273549828</v>
+        <v>0.525815358937383</v>
       </c>
       <c r="K5">
-        <v>0.00979881462615984</v>
+        <v>0.006367635249259218</v>
       </c>
       <c r="L5">
-        <v>0.003212418044145417</v>
+        <v>0.001674100207085784</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -659,34 +626,34 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>3.2065</v>
+        <v>10.977</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>3.010875</v>
+        <v>11.188875</v>
       </c>
       <c r="G6">
-        <v>0.202774796875</v>
+        <v>0.1972095468749998</v>
       </c>
       <c r="H6">
-        <v>38.875</v>
+        <v>48</v>
       </c>
       <c r="I6">
-        <v>1245.109375</v>
+        <v>1448.5</v>
       </c>
       <c r="J6">
-        <v>0.8061604074726</v>
+        <v>0.8017087884202123</v>
       </c>
       <c r="K6">
-        <v>0.008089049222233136</v>
+        <v>0.006367635249259218</v>
       </c>
       <c r="L6">
-        <v>0.003260535608530691</v>
+        <v>0.002552494570392722</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -697,490 +664,72 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>2.374</v>
+        <v>11.566</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="F7">
-        <v>3.010875</v>
+        <v>11.188875</v>
       </c>
       <c r="G7">
-        <v>0.202774796875</v>
+        <v>0.1972095468749998</v>
       </c>
       <c r="H7">
-        <v>38.875</v>
+        <v>48</v>
       </c>
       <c r="I7">
-        <v>1245.109375</v>
+        <v>1448.5</v>
       </c>
       <c r="J7">
-        <v>0.3258698341765872</v>
+        <v>0.6263891092872539</v>
       </c>
       <c r="K7">
-        <v>0.008089049222233136</v>
+        <v>0.005867445736267897</v>
       </c>
       <c r="L7">
-        <v>0.001317988564347682</v>
+        <v>0.001837652054266072</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>2.6955</v>
+        <v>10.564</v>
       </c>
       <c r="E8">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F8">
-        <v>3.010875</v>
+        <v>11.188875</v>
       </c>
       <c r="G8">
-        <v>0.202774796875</v>
+        <v>0.1972095468749998</v>
       </c>
       <c r="H8">
-        <v>38.875</v>
+        <v>48</v>
       </c>
       <c r="I8">
-        <v>1245.109375</v>
+        <v>1448.5</v>
       </c>
       <c r="J8">
-        <v>0.6932533531413017</v>
+        <v>0.3338115188145467</v>
       </c>
       <c r="K8">
-        <v>0.004122144904925831</v>
+        <v>0.006867661201207724</v>
       </c>
       <c r="L8">
-        <v>0.001428845388737082</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>3.9685</v>
-      </c>
-      <c r="E9">
-        <v>79</v>
-      </c>
-      <c r="F9">
-        <v>3.010875</v>
-      </c>
-      <c r="G9">
-        <v>0.202774796875</v>
-      </c>
-      <c r="H9">
-        <v>38.875</v>
-      </c>
-      <c r="I9">
-        <v>1245.109375</v>
-      </c>
-      <c r="J9">
-        <v>0.09233328750545597</v>
-      </c>
-      <c r="K9">
-        <v>0.005922695085047902</v>
-      </c>
-      <c r="L9">
-        <v>0.0002734309540474395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>2.905</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>3.239100000000001</v>
-      </c>
-      <c r="G10">
-        <v>0.22243699</v>
-      </c>
-      <c r="H10">
-        <v>45.3</v>
-      </c>
-      <c r="I10">
-        <v>1960.41</v>
-      </c>
-      <c r="J10">
-        <v>0.6581702389148893</v>
-      </c>
-      <c r="K10">
-        <v>0.005338685304373844</v>
-      </c>
-      <c r="L10">
-        <v>0.001756881891135571</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>3.3835</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11">
-        <v>3.239100000000001</v>
-      </c>
-      <c r="G11">
-        <v>0.22243699</v>
-      </c>
-      <c r="H11">
-        <v>45.3</v>
-      </c>
-      <c r="I11">
-        <v>1960.41</v>
-      </c>
-      <c r="J11">
-        <v>0.8071440783008531</v>
-      </c>
-      <c r="K11">
-        <v>0.004200626402036855</v>
-      </c>
-      <c r="L11">
-        <v>0.001695255362779133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>3.353</v>
-      </c>
-      <c r="E12">
-        <v>100</v>
-      </c>
-      <c r="F12">
-        <v>3.239100000000001</v>
-      </c>
-      <c r="G12">
-        <v>0.22243699</v>
-      </c>
-      <c r="H12">
-        <v>45.3</v>
-      </c>
-      <c r="I12">
-        <v>1960.41</v>
-      </c>
-      <c r="J12">
-        <v>0.8215648791788004</v>
-      </c>
-      <c r="K12">
-        <v>0.004200626402036855</v>
-      </c>
-      <c r="L12">
-        <v>0.001725543561232344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>2.995</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-      <c r="F13">
-        <v>3.239100000000001</v>
-      </c>
-      <c r="G13">
-        <v>0.22243699</v>
-      </c>
-      <c r="H13">
-        <v>45.3</v>
-      </c>
-      <c r="I13">
-        <v>1960.41</v>
-      </c>
-      <c r="J13">
-        <v>0.739841571720248</v>
-      </c>
-      <c r="K13">
-        <v>0.004200626402036855</v>
-      </c>
-      <c r="L13">
-        <v>0.001553899019746259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>4.2805</v>
-      </c>
-      <c r="E14">
-        <v>66</v>
-      </c>
-      <c r="F14">
-        <v>3.239100000000001</v>
-      </c>
-      <c r="G14">
-        <v>0.22243699</v>
-      </c>
-      <c r="H14">
-        <v>45.3</v>
-      </c>
-      <c r="I14">
-        <v>1960.41</v>
-      </c>
-      <c r="J14">
-        <v>0.07388959830514233</v>
-      </c>
-      <c r="K14">
-        <v>0.008077451998695988</v>
-      </c>
-      <c r="L14">
-        <v>0.0002984198417563578</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>3.072</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>3.239100000000001</v>
-      </c>
-      <c r="G15">
-        <v>0.22243699</v>
-      </c>
-      <c r="H15">
-        <v>45.3</v>
-      </c>
-      <c r="I15">
-        <v>1960.41</v>
-      </c>
-      <c r="J15">
-        <v>0.7944163442429553</v>
-      </c>
-      <c r="K15">
-        <v>0.005338685304373844</v>
-      </c>
-      <c r="L15">
-        <v>0.002120569431282129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>3.607</v>
-      </c>
-      <c r="E16">
-        <v>12</v>
-      </c>
-      <c r="F16">
-        <v>3.239100000000001</v>
-      </c>
-      <c r="G16">
-        <v>0.22243699</v>
-      </c>
-      <c r="H16">
-        <v>45.3</v>
-      </c>
-      <c r="I16">
-        <v>1960.41</v>
-      </c>
-      <c r="J16">
-        <v>0.623986083495514</v>
-      </c>
-      <c r="K16">
-        <v>0.006790613889094571</v>
-      </c>
-      <c r="L16">
-        <v>0.002118624282593181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>3.387</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>3.239100000000001</v>
-      </c>
-      <c r="G17">
-        <v>0.22243699</v>
-      </c>
-      <c r="H17">
-        <v>45.3</v>
-      </c>
-      <c r="I17">
-        <v>1960.41</v>
-      </c>
-      <c r="J17">
-        <v>0.805290070084263</v>
-      </c>
-      <c r="K17">
-        <v>0.005338685304373844</v>
-      </c>
-      <c r="L17">
-        <v>0.002149595131458519</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>2.4065</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>3.239100000000001</v>
-      </c>
-      <c r="G18">
-        <v>0.22243699</v>
-      </c>
-      <c r="H18">
-        <v>45.3</v>
-      </c>
-      <c r="I18">
-        <v>1960.41</v>
-      </c>
-      <c r="J18">
-        <v>0.1780611826389548</v>
-      </c>
-      <c r="K18">
-        <v>0.005338685304373844</v>
-      </c>
-      <c r="L18">
-        <v>0.0004753063095170074</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1">
-        <v>38</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>3.0015</v>
-      </c>
-      <c r="E19">
-        <v>75</v>
-      </c>
-      <c r="F19">
-        <v>3.239100000000001</v>
-      </c>
-      <c r="G19">
-        <v>0.22243699</v>
-      </c>
-      <c r="H19">
-        <v>45.3</v>
-      </c>
-      <c r="I19">
-        <v>1960.41</v>
-      </c>
-      <c r="J19">
-        <v>0.7450669883149073</v>
-      </c>
-      <c r="K19">
-        <v>0.007195000363549942</v>
-      </c>
-      <c r="L19">
-        <v>0.002680378625897409</v>
+        <v>0.001146252208139442</v>
       </c>
     </row>
   </sheetData>
